--- a/Data/SNV_filtering_inputs/PillarProject_filtering/RAD51D/20250822_RAD51D_filter_entry.xlsx
+++ b/Data/SNV_filtering_inputs/PillarProject_filtering/RAD51D/20250822_RAD51D_filter_entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/SNV_filtering_inputs/PillarProject_filtering/RAD51D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFC2E16-D8AA-7E4C-91A5-D86218EEE084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5208DBED-2F24-6345-BD33-29BFF4D0D398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{8C01A5B8-3E10-AC49-BF69-E3F8303A9D28}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="16260" xr2:uid="{8C01A5B8-3E10-AC49-BF69-E3F8303A9D28}"/>
   </bookViews>
   <sheets>
     <sheet name="targets" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,12 +110,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1B1B1F"/>
-      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -139,10 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +473,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,25 +492,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>35119676</v>
       </c>
-      <c r="C2" s="1">
-        <v>35119554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>35119580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>35119586</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>35119461</v>
       </c>
     </row>
@@ -525,40 +518,40 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>35119194</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>35119070</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>35118646</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>35118525</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>35118570</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>35118452</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>35107469</v>
       </c>
       <c r="C7">
